--- a/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_zh.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_zh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SKU</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>产品说明</t>
+  </si>
+  <si>
+    <t>是否一票多件</t>
   </si>
 </sst>
 </file>
@@ -68,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -87,6 +90,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -95,12 +106,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -108,6 +179,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -116,25 +211,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,92 +227,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,43 +256,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,127 +412,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,16 +466,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,17 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,7 +507,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -539,173 +562,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1055,7 +1058,7 @@
     <col min="11" max="15" width="16.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:15">
+    <row r="1" ht="14" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,6 +1103,9 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1110,11 +1116,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9987">
       <formula1>"干电池,纽扣电池,其他电池"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9987">
+      <formula1>"内置,配套"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H9987">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9987">
-      <formula1>"内置,配套"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_zh.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_zh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SKU</t>
   </si>
@@ -61,7 +61,10 @@
     <t>产品说明</t>
   </si>
   <si>
-    <t>是否一票多件</t>
+    <t>海关编码</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -91,11 +94,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -106,36 +108,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,75 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -226,16 +198,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,175 +266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,21 +476,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -491,24 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +507,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -544,6 +519,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +552,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +580,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,141 +592,144 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1058,7 +1071,7 @@
     <col min="11" max="15" width="16.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:16">
+    <row r="1" ht="14" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1117,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_zh.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_zh.xlsx
@@ -4,67 +4,108 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="sku导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="SKU导入表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>英文申报品名</t>
-  </si>
-  <si>
-    <t>中文申报品名</t>
-  </si>
-  <si>
-    <t>申报价值(USD)</t>
-  </si>
-  <si>
-    <t>产品属性</t>
-  </si>
-  <si>
-    <t>电池类型</t>
-  </si>
-  <si>
-    <t>电池包装</t>
-  </si>
-  <si>
-    <t>是否自备包材</t>
-  </si>
-  <si>
-    <t>自备包材条码</t>
-  </si>
-  <si>
-    <t>物流包装要求</t>
-  </si>
-  <si>
-    <t>重量(g)</t>
-  </si>
-  <si>
-    <t>长（cm）</t>
-  </si>
-  <si>
-    <t>宽（cm）</t>
-  </si>
-  <si>
-    <t>高（cm）</t>
-  </si>
-  <si>
-    <t>产品说明</t>
-  </si>
-  <si>
-    <t>海关编码</t>
-  </si>
-  <si>
-    <t>备注</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>SKU编码
+（非必填）</t>
+  </si>
+  <si>
+    <t>英文申报品名
+（必填）</t>
+  </si>
+  <si>
+    <t>中文申报品名
+（必填）</t>
+  </si>
+  <si>
+    <t>申报价值(USD)
+（必填）</t>
+  </si>
+  <si>
+    <t>产品属性
+（必填）</t>
+  </si>
+  <si>
+    <t>带电信息
+（非必填）</t>
+  </si>
+  <si>
+    <t>电池包装
+（非必填）</t>
+  </si>
+  <si>
+    <t>是否附带包材
+（必填）</t>
+  </si>
+  <si>
+    <t>附带包材
+（非必填）</t>
+  </si>
+  <si>
+    <t>物流包装要求
+（非必填）</t>
+  </si>
+  <si>
+    <t>包装材料价格区间
+（非必填）</t>
+  </si>
+  <si>
+    <t>海关编码
+（非必填）</t>
+  </si>
+  <si>
+    <t>产品说明
+（必填）</t>
+  </si>
+  <si>
+    <t>重量(g)
+（必填）</t>
+  </si>
+  <si>
+    <t>长（cm）
+（必填）</t>
+  </si>
+  <si>
+    <t>宽（cm）
+（必填）</t>
+  </si>
+  <si>
+    <t>高（cm）
+（必填）</t>
+  </si>
+  <si>
+    <t>体积（cm³）
+（非必填）</t>
+  </si>
+  <si>
+    <t>自定义SKU编码
+（非必填）</t>
+  </si>
+  <si>
+    <t>产品介绍地址
+（非必填）</t>
+  </si>
+  <si>
+    <t>材质
+（非必填）</t>
+  </si>
+  <si>
+    <t>用途
+（非必填）</t>
+  </si>
+  <si>
+    <t>备注
+（非必填）</t>
   </si>
 </sst>
 </file>
@@ -77,7 +118,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -88,15 +129,34 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -251,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,7 +320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004597"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,16 +527,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,160 +643,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -785,6 +863,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00004597"/>
+      <color rgb="00B7DEE8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1051,70 +1135,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.7166666666667" customWidth="1"/>
-    <col min="2" max="3" width="34.275" customWidth="1"/>
+    <col min="1" max="1" width="29.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.1833333333333" customWidth="1"/>
     <col min="4" max="4" width="22.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="21.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="24.275" customWidth="1"/>
+    <col min="5" max="5" width="15.275" customWidth="1"/>
+    <col min="6" max="6" width="18.3666666666667" customWidth="1"/>
     <col min="7" max="7" width="15.6333333333333" customWidth="1"/>
     <col min="8" max="8" width="20.6333333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.5416666666667" customWidth="1"/>
+    <col min="9" max="9" width="18.725" customWidth="1"/>
     <col min="10" max="10" width="19.6333333333333" customWidth="1"/>
-    <col min="11" max="15" width="16.7166666666667" customWidth="1"/>
+    <col min="11" max="11" width="16.7166666666667" customWidth="1"/>
+    <col min="12" max="12" width="13.9083333333333" customWidth="1"/>
+    <col min="13" max="13" width="19.5416666666667" customWidth="1"/>
+    <col min="14" max="17" width="16.7166666666667" customWidth="1"/>
+    <col min="18" max="18" width="19.5416666666667" customWidth="1"/>
+    <col min="19" max="19" width="16.1333333333333" customWidth="1"/>
+    <col min="20" max="21" width="14.4583333333333" customWidth="1"/>
+    <col min="22" max="23" width="14.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:17">
+    <row r="1" ht="53" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1123,20 +1215,66 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E9987">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9986">
+      <formula1>"干电池,纽扣电池,其他电池"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E9986">
       <formula1>"普货,带电,液体,粉末,带磁"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9987">
-      <formula1>"干电池,纽扣电池,其他电池"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H9986">
+      <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9987">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9986">
       <formula1>"内置,配套"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H9987">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"SP001,气泡袋"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
